--- a/CaseAndFatalityDemographicsData/2021-12-17.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-12-17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\12.09.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\12.16.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6ED69A-E160-42C6-AF45-2A69FAE0FCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6477DCF1-8C2A-48EC-9209-693DF8DEB625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62295" yWindow="3315" windowWidth="17280" windowHeight="9000" tabRatio="806" firstSheet="2" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="16560" windowHeight="10200" tabRatio="806" firstSheet="4" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -634,12 +634,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -662,7 +662,7 @@
         <v>3.6303993439278323E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2.0212223344567903E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -686,7 +686,7 @@
         <v>5.3705907649841483E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0.20392243146746142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -710,7 +710,7 @@
         <v>0.21491364050045506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -722,7 +722,7 @@
         <v>0.18597045675024251</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,7 +734,7 @@
         <v>0.1542469671663883</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -746,7 +746,7 @@
         <v>5.5966156277190489E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -758,7 +758,7 @@
         <v>3.8454229965296183E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -770,7 +770,7 @@
         <v>2.4362679894788426E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1.6551820700277029E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -794,7 +794,7 @@
         <v>2.7663042934722819E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -806,7 +806,7 @@
         <v>4.0004400484053244E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -833,9 +833,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -924,12 +924,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1059,81 +1059,81 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="18"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="18"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1150,12 +1150,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1166,31 +1166,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>30722</v>
+        <v>30904</v>
       </c>
       <c r="C2" s="9">
-        <f>B2/$B$5</f>
-        <v>0.41891541786547037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.4190031997396822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>42614</v>
+        <v>42851</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58107094645267732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.58098324204132545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1198,19 +1196,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3635681852271023E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.3558218992353165E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>73337</v>
+        <v>73756</v>
       </c>
       <c r="C5" s="13">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1227,12 +1223,12 @@
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1252,22 +1248,22 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.9089954593179431E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.8981506589294431E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.9998500074996249E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3.1183903682412281E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1276,118 +1272,118 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.0908545481816817E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.0846575193882533E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>9.1495425228738572E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.206030695807799E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>2149</v>
+        <v>2169</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.9303080300530429E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.9407776994414013E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>5207</v>
+        <v>5252</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>7.1000995404775211E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7.1207766147838816E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>9896</v>
+        <v>9965</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.13493870761007404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.13510765225879928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>7524</v>
+        <v>7565</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>0.10259487025648717</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.10256792667715169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>8827</v>
+        <v>8879</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12036216370999632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12038342643310375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>9351</v>
+        <v>9402</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.12750726100058635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12747437496610445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>8830</v>
+        <v>8875</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12040307075555313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12032919355713434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>20766</v>
+        <v>20853</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.28315856934426004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.28272954064754052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1399,12 +1395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
-        <v>73337</v>
+        <v>73756</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1421,15 +1417,15 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1440,64 +1436,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.8421806182418152E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1.8344270296653833E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7785</v>
+        <v>7828</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10615378321992991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.10613373827214057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>31978</v>
+        <v>32148</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.43604183427192278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.43586962416616953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6">
-        <v>437</v>
+      <c r="B5">
+        <v>438</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.958792969442437E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5.9384999186506858E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>31741</v>
+        <v>31944</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.43281017767293456</v>
+        <v>0.43310374749172947</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1509,7 +1505,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1514,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>6.1360568335219604E-4</v>
+        <v>6.1011985465589239E-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
@@ -1530,13 +1526,13 @@
       <c r="N7" s="25"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>73337</v>
+        <v>73756</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
@@ -1552,7 +1548,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
